--- a/Input/ADNT_International/rateSheet.xlsx
+++ b/Input/ADNT_International/rateSheet.xlsx
@@ -11,8 +11,9 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$H$1:$H$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$J$313</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$M$445</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$H$1:$H$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$J$313</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -240,21 +241,22 @@
   </sheetPr>
   <dimension ref="A1:AMJ445"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G283" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K325" activeCellId="0" sqref="K325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="30.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="27.78"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="4" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="69.01"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="12" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="13" style="0" width="8.67"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -335,6 +337,9 @@
       <c r="K2" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L2" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -370,6 +375,9 @@
       <c r="K3" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L3" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -405,6 +413,9 @@
       <c r="K4" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L4" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -440,6 +451,9 @@
       <c r="K5" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L5" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -475,6 +489,9 @@
       <c r="K6" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L6" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -510,6 +527,9 @@
       <c r="K7" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L7" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
@@ -545,6 +565,9 @@
       <c r="K8" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L8" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
@@ -580,6 +603,9 @@
       <c r="K9" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L9" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
@@ -615,6 +641,9 @@
       <c r="K10" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L10" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
@@ -650,6 +679,9 @@
       <c r="K11" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L11" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -685,6 +717,9 @@
       <c r="K12" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L12" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
@@ -720,6 +755,9 @@
       <c r="K13" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L13" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
@@ -755,6 +793,9 @@
       <c r="K14" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L14" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
@@ -790,6 +831,9 @@
       <c r="K15" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L15" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
@@ -825,6 +869,9 @@
       <c r="K16" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L16" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
@@ -860,6 +907,9 @@
       <c r="K17" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L17" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
@@ -895,6 +945,9 @@
       <c r="K18" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L18" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
@@ -930,6 +983,9 @@
       <c r="K19" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L19" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M19" s="0" t="n">
         <v>1</v>
       </c>
@@ -968,6 +1024,9 @@
       <c r="K20" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L20" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M20" s="0" t="n">
         <v>1</v>
       </c>
@@ -1006,6 +1065,9 @@
       <c r="K21" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L21" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M21" s="0" t="n">
         <v>1</v>
       </c>
@@ -1044,6 +1106,9 @@
       <c r="K22" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L22" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M22" s="0" t="n">
         <v>1</v>
       </c>
@@ -1082,6 +1147,9 @@
       <c r="K23" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L23" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M23" s="0" t="n">
         <v>1</v>
       </c>
@@ -1120,6 +1188,9 @@
       <c r="K24" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L24" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M24" s="0" t="n">
         <v>1</v>
       </c>
@@ -1158,6 +1229,9 @@
       <c r="K25" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L25" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M25" s="0" t="n">
         <v>1</v>
       </c>
@@ -1196,6 +1270,9 @@
       <c r="K26" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L26" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M26" s="0" t="n">
         <v>1</v>
       </c>
@@ -1234,6 +1311,9 @@
       <c r="K27" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L27" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M27" s="0" t="n">
         <v>1</v>
       </c>
@@ -1272,6 +1352,9 @@
       <c r="K28" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L28" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
@@ -1307,6 +1390,9 @@
       <c r="K29" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L29" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
@@ -1342,6 +1428,9 @@
       <c r="K30" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L30" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
@@ -1377,6 +1466,9 @@
       <c r="K31" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L31" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
@@ -1412,6 +1504,9 @@
       <c r="K32" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L32" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
@@ -1447,6 +1542,9 @@
       <c r="K33" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L33" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
@@ -1482,6 +1580,9 @@
       <c r="K34" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L34" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
@@ -1517,6 +1618,9 @@
       <c r="K35" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L35" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
@@ -1552,6 +1656,9 @@
       <c r="K36" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L36" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
@@ -1587,6 +1694,9 @@
       <c r="K37" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L37" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
@@ -1622,6 +1732,9 @@
       <c r="K38" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L38" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
@@ -1657,6 +1770,9 @@
       <c r="K39" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L39" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
@@ -1692,6 +1808,9 @@
       <c r="K40" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L40" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
@@ -1727,6 +1846,9 @@
       <c r="K41" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L41" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
@@ -1762,6 +1884,9 @@
       <c r="K42" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L42" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
@@ -1797,6 +1922,9 @@
       <c r="K43" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L43" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
@@ -1832,6 +1960,9 @@
       <c r="K44" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L44" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
@@ -1867,6 +1998,9 @@
       <c r="K45" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L45" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M45" s="0" t="n">
         <v>1</v>
       </c>
@@ -1905,6 +2039,9 @@
       <c r="K46" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L46" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M46" s="0" t="n">
         <v>1</v>
       </c>
@@ -1943,6 +2080,9 @@
       <c r="K47" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L47" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M47" s="0" t="n">
         <v>1</v>
       </c>
@@ -1981,6 +2121,9 @@
       <c r="K48" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L48" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M48" s="0" t="n">
         <v>1</v>
       </c>
@@ -2019,6 +2162,9 @@
       <c r="K49" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L49" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M49" s="0" t="n">
         <v>1</v>
       </c>
@@ -2057,6 +2203,9 @@
       <c r="K50" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L50" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M50" s="0" t="n">
         <v>1</v>
       </c>
@@ -2095,6 +2244,9 @@
       <c r="K51" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L51" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M51" s="0" t="n">
         <v>1</v>
       </c>
@@ -2133,6 +2285,9 @@
       <c r="K52" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L52" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M52" s="0" t="n">
         <v>1</v>
       </c>
@@ -2171,6 +2326,9 @@
       <c r="K53" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L53" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M53" s="0" t="n">
         <v>1</v>
       </c>
@@ -2209,6 +2367,9 @@
       <c r="K54" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L54" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
@@ -2244,6 +2405,9 @@
       <c r="K55" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L55" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
@@ -2279,6 +2443,9 @@
       <c r="K56" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L56" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
@@ -2314,6 +2481,9 @@
       <c r="K57" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L57" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
@@ -2349,6 +2519,9 @@
       <c r="K58" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L58" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
@@ -2384,6 +2557,9 @@
       <c r="K59" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L59" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
@@ -2419,6 +2595,9 @@
       <c r="K60" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L60" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
@@ -2454,6 +2633,9 @@
       <c r="K61" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L61" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
@@ -2489,6 +2671,9 @@
       <c r="K62" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L62" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
@@ -2524,6 +2709,9 @@
       <c r="K63" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L63" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
@@ -2559,6 +2747,9 @@
       <c r="K64" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L64" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
@@ -2594,6 +2785,9 @@
       <c r="K65" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L65" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
@@ -2629,6 +2823,9 @@
       <c r="K66" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L66" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
@@ -2664,6 +2861,9 @@
       <c r="K67" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L67" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
@@ -2699,6 +2899,9 @@
       <c r="K68" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L68" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
@@ -2734,6 +2937,9 @@
       <c r="K69" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L69" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
@@ -2769,6 +2975,9 @@
       <c r="K70" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L70" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
@@ -2804,6 +3013,9 @@
       <c r="K71" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L71" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M71" s="0" t="n">
         <v>1</v>
       </c>
@@ -2842,6 +3054,9 @@
       <c r="K72" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L72" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M72" s="0" t="n">
         <v>1</v>
       </c>
@@ -2880,6 +3095,9 @@
       <c r="K73" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L73" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M73" s="0" t="n">
         <v>1</v>
       </c>
@@ -2918,6 +3136,9 @@
       <c r="K74" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L74" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M74" s="0" t="n">
         <v>1</v>
       </c>
@@ -2956,6 +3177,9 @@
       <c r="K75" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L75" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M75" s="0" t="n">
         <v>1</v>
       </c>
@@ -2994,6 +3218,9 @@
       <c r="K76" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L76" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M76" s="0" t="n">
         <v>1</v>
       </c>
@@ -3032,6 +3259,9 @@
       <c r="K77" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L77" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M77" s="0" t="n">
         <v>1</v>
       </c>
@@ -3070,6 +3300,9 @@
       <c r="K78" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L78" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M78" s="0" t="n">
         <v>1</v>
       </c>
@@ -3108,6 +3341,9 @@
       <c r="K79" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L79" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M79" s="0" t="n">
         <v>1</v>
       </c>
@@ -3146,6 +3382,9 @@
       <c r="K80" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L80" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
@@ -3181,6 +3420,9 @@
       <c r="K81" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L81" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
@@ -3216,6 +3458,9 @@
       <c r="K82" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L82" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
@@ -3251,6 +3496,9 @@
       <c r="K83" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L83" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
@@ -3286,6 +3534,9 @@
       <c r="K84" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L84" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
@@ -3321,6 +3572,9 @@
       <c r="K85" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L85" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
@@ -3356,6 +3610,9 @@
       <c r="K86" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L86" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
@@ -3391,6 +3648,9 @@
       <c r="K87" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L87" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
@@ -3426,6 +3686,9 @@
       <c r="K88" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L88" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
@@ -3461,6 +3724,9 @@
       <c r="K89" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L89" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
@@ -3496,6 +3762,9 @@
       <c r="K90" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L90" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
@@ -3531,6 +3800,9 @@
       <c r="K91" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L91" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
@@ -3566,6 +3838,9 @@
       <c r="K92" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L92" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
@@ -3601,6 +3876,9 @@
       <c r="K93" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L93" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
@@ -3636,6 +3914,9 @@
       <c r="K94" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L94" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
@@ -3671,6 +3952,9 @@
       <c r="K95" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L95" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
@@ -3706,6 +3990,9 @@
       <c r="K96" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L96" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
@@ -3741,6 +4028,9 @@
       <c r="K97" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L97" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M97" s="0" t="n">
         <v>1</v>
       </c>
@@ -3779,6 +4069,9 @@
       <c r="K98" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L98" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M98" s="0" t="n">
         <v>1</v>
       </c>
@@ -3817,6 +4110,9 @@
       <c r="K99" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L99" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M99" s="0" t="n">
         <v>1</v>
       </c>
@@ -3855,6 +4151,9 @@
       <c r="K100" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L100" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M100" s="0" t="n">
         <v>1</v>
       </c>
@@ -3893,6 +4192,9 @@
       <c r="K101" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L101" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M101" s="0" t="n">
         <v>1</v>
       </c>
@@ -3931,6 +4233,9 @@
       <c r="K102" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L102" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M102" s="0" t="n">
         <v>1</v>
       </c>
@@ -3969,6 +4274,9 @@
       <c r="K103" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L103" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M103" s="0" t="n">
         <v>1</v>
       </c>
@@ -4007,6 +4315,9 @@
       <c r="K104" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L104" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M104" s="0" t="n">
         <v>1</v>
       </c>
@@ -4045,6 +4356,9 @@
       <c r="K105" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L105" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M105" s="0" t="n">
         <v>1</v>
       </c>
@@ -4083,6 +4397,9 @@
       <c r="K106" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L106" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
@@ -4118,6 +4435,9 @@
       <c r="K107" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L107" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
@@ -4153,6 +4473,9 @@
       <c r="K108" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L108" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
@@ -4188,6 +4511,9 @@
       <c r="K109" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L109" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
@@ -4223,6 +4549,9 @@
       <c r="K110" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L110" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
@@ -4258,6 +4587,9 @@
       <c r="K111" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L111" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
@@ -4293,6 +4625,9 @@
       <c r="K112" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L112" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
@@ -4328,6 +4663,9 @@
       <c r="K113" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L113" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
@@ -4363,6 +4701,9 @@
       <c r="K114" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L114" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
@@ -4398,6 +4739,9 @@
       <c r="K115" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L115" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
@@ -4433,6 +4777,9 @@
       <c r="K116" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L116" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
@@ -4468,6 +4815,9 @@
       <c r="K117" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L117" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
@@ -4503,6 +4853,9 @@
       <c r="K118" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L118" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
@@ -4538,6 +4891,9 @@
       <c r="K119" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L119" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
@@ -4573,6 +4929,9 @@
       <c r="K120" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L120" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
@@ -4608,6 +4967,9 @@
       <c r="K121" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L121" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
@@ -4643,6 +5005,9 @@
       <c r="K122" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L122" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
@@ -4678,6 +5043,9 @@
       <c r="K123" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L123" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M123" s="0" t="n">
         <v>1</v>
       </c>
@@ -4716,6 +5084,9 @@
       <c r="K124" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L124" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M124" s="0" t="n">
         <v>1</v>
       </c>
@@ -4754,6 +5125,9 @@
       <c r="K125" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L125" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M125" s="0" t="n">
         <v>1</v>
       </c>
@@ -4792,6 +5166,9 @@
       <c r="K126" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L126" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M126" s="0" t="n">
         <v>1</v>
       </c>
@@ -4830,6 +5207,9 @@
       <c r="K127" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L127" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M127" s="0" t="n">
         <v>1</v>
       </c>
@@ -4868,6 +5248,9 @@
       <c r="K128" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L128" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M128" s="0" t="n">
         <v>1</v>
       </c>
@@ -4906,6 +5289,9 @@
       <c r="K129" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L129" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M129" s="0" t="n">
         <v>1</v>
       </c>
@@ -4944,6 +5330,9 @@
       <c r="K130" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L130" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M130" s="0" t="n">
         <v>1</v>
       </c>
@@ -4982,6 +5371,9 @@
       <c r="K131" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L131" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M131" s="0" t="n">
         <v>1</v>
       </c>
@@ -5020,6 +5412,9 @@
       <c r="K132" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L132" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
@@ -5055,6 +5450,9 @@
       <c r="K133" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L133" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
@@ -5090,6 +5488,9 @@
       <c r="K134" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L134" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
@@ -5125,6 +5526,9 @@
       <c r="K135" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L135" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
@@ -5160,6 +5564,9 @@
       <c r="K136" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L136" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
@@ -5195,6 +5602,9 @@
       <c r="K137" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L137" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
@@ -5230,6 +5640,9 @@
       <c r="K138" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L138" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
@@ -5265,6 +5678,9 @@
       <c r="K139" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L139" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
@@ -5300,6 +5716,9 @@
       <c r="K140" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L140" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
@@ -5335,6 +5754,9 @@
       <c r="K141" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L141" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
@@ -5370,6 +5792,9 @@
       <c r="K142" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L142" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
@@ -5405,6 +5830,9 @@
       <c r="K143" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L143" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
@@ -5440,6 +5868,9 @@
       <c r="K144" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L144" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
@@ -5475,6 +5906,9 @@
       <c r="K145" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L145" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
@@ -5510,6 +5944,9 @@
       <c r="K146" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L146" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
@@ -5545,6 +5982,9 @@
       <c r="K147" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L147" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
@@ -5580,6 +6020,9 @@
       <c r="K148" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L148" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
@@ -5615,6 +6058,9 @@
       <c r="K149" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L149" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M149" s="0" t="n">
         <v>1</v>
       </c>
@@ -5653,6 +6099,9 @@
       <c r="K150" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L150" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M150" s="0" t="n">
         <v>1</v>
       </c>
@@ -5691,6 +6140,9 @@
       <c r="K151" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L151" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M151" s="0" t="n">
         <v>1</v>
       </c>
@@ -5729,6 +6181,9 @@
       <c r="K152" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L152" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M152" s="0" t="n">
         <v>1</v>
       </c>
@@ -5767,6 +6222,9 @@
       <c r="K153" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L153" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M153" s="0" t="n">
         <v>1</v>
       </c>
@@ -5805,6 +6263,9 @@
       <c r="K154" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L154" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M154" s="0" t="n">
         <v>1</v>
       </c>
@@ -5843,6 +6304,9 @@
       <c r="K155" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L155" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M155" s="0" t="n">
         <v>1</v>
       </c>
@@ -5881,6 +6345,9 @@
       <c r="K156" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L156" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M156" s="0" t="n">
         <v>1</v>
       </c>
@@ -5919,6 +6386,9 @@
       <c r="K157" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L157" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M157" s="0" t="n">
         <v>1</v>
       </c>
@@ -5957,6 +6427,9 @@
       <c r="K158" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L158" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
@@ -5992,6 +6465,9 @@
       <c r="K159" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L159" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
@@ -6027,6 +6503,9 @@
       <c r="K160" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L160" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
@@ -6062,6 +6541,9 @@
       <c r="K161" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L161" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
@@ -6097,6 +6579,9 @@
       <c r="K162" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L162" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
@@ -6132,6 +6617,9 @@
       <c r="K163" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L163" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
@@ -6167,6 +6655,9 @@
       <c r="K164" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L164" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
@@ -6202,6 +6693,9 @@
       <c r="K165" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L165" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
@@ -6237,6 +6731,9 @@
       <c r="K166" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L166" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
@@ -6272,6 +6769,9 @@
       <c r="K167" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L167" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
@@ -6307,6 +6807,9 @@
       <c r="K168" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L168" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
@@ -6342,6 +6845,9 @@
       <c r="K169" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L169" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
@@ -6377,6 +6883,9 @@
       <c r="K170" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L170" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
@@ -6412,6 +6921,9 @@
       <c r="K171" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L171" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
@@ -6447,6 +6959,9 @@
       <c r="K172" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L172" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
@@ -6482,6 +6997,9 @@
       <c r="K173" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L173" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
@@ -6517,6 +7035,9 @@
       <c r="K174" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L174" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
@@ -6552,6 +7073,9 @@
       <c r="K175" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L175" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M175" s="0" t="n">
         <v>1</v>
       </c>
@@ -6590,6 +7114,9 @@
       <c r="K176" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L176" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M176" s="0" t="n">
         <v>1</v>
       </c>
@@ -6628,6 +7155,9 @@
       <c r="K177" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L177" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M177" s="0" t="n">
         <v>1</v>
       </c>
@@ -6666,6 +7196,9 @@
       <c r="K178" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L178" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M178" s="0" t="n">
         <v>1</v>
       </c>
@@ -6704,6 +7237,9 @@
       <c r="K179" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L179" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M179" s="0" t="n">
         <v>1</v>
       </c>
@@ -6742,6 +7278,9 @@
       <c r="K180" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L180" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M180" s="0" t="n">
         <v>1</v>
       </c>
@@ -6780,6 +7319,9 @@
       <c r="K181" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L181" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M181" s="0" t="n">
         <v>1</v>
       </c>
@@ -6818,6 +7360,9 @@
       <c r="K182" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L182" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M182" s="0" t="n">
         <v>1</v>
       </c>
@@ -6856,6 +7401,9 @@
       <c r="K183" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L183" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M183" s="0" t="n">
         <v>1</v>
       </c>
@@ -6894,6 +7442,9 @@
       <c r="K184" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L184" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
@@ -6929,6 +7480,9 @@
       <c r="K185" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L185" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
@@ -6964,6 +7518,9 @@
       <c r="K186" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L186" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
@@ -6999,6 +7556,9 @@
       <c r="K187" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L187" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
@@ -7034,6 +7594,9 @@
       <c r="K188" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L188" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
@@ -7069,6 +7632,9 @@
       <c r="K189" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L189" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
@@ -7104,6 +7670,9 @@
       <c r="K190" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L190" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
@@ -7139,6 +7708,9 @@
       <c r="K191" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L191" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
@@ -7174,6 +7746,9 @@
       <c r="K192" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L192" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
@@ -7209,6 +7784,9 @@
       <c r="K193" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L193" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
@@ -7244,6 +7822,9 @@
       <c r="K194" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L194" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
@@ -7279,6 +7860,9 @@
       <c r="K195" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L195" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
@@ -7314,6 +7898,9 @@
       <c r="K196" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L196" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
@@ -7349,6 +7936,9 @@
       <c r="K197" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L197" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
@@ -7384,6 +7974,9 @@
       <c r="K198" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L198" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
@@ -7419,6 +8012,9 @@
       <c r="K199" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L199" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
@@ -7454,6 +8050,9 @@
       <c r="K200" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L200" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
@@ -7489,6 +8088,9 @@
       <c r="K201" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L201" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M201" s="0" t="n">
         <v>1</v>
       </c>
@@ -7527,6 +8129,9 @@
       <c r="K202" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L202" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M202" s="0" t="n">
         <v>1</v>
       </c>
@@ -7565,6 +8170,9 @@
       <c r="K203" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L203" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M203" s="0" t="n">
         <v>1</v>
       </c>
@@ -7603,6 +8211,9 @@
       <c r="K204" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L204" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M204" s="0" t="n">
         <v>1</v>
       </c>
@@ -7641,6 +8252,9 @@
       <c r="K205" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L205" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M205" s="0" t="n">
         <v>1</v>
       </c>
@@ -7679,6 +8293,9 @@
       <c r="K206" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L206" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M206" s="0" t="n">
         <v>1</v>
       </c>
@@ -7717,6 +8334,9 @@
       <c r="K207" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L207" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M207" s="0" t="n">
         <v>1</v>
       </c>
@@ -7755,6 +8375,9 @@
       <c r="K208" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L208" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M208" s="0" t="n">
         <v>1</v>
       </c>
@@ -7793,6 +8416,9 @@
       <c r="K209" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L209" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M209" s="0" t="n">
         <v>1</v>
       </c>
@@ -7831,6 +8457,9 @@
       <c r="K210" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L210" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
@@ -7866,6 +8495,9 @@
       <c r="K211" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L211" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
@@ -7901,6 +8533,9 @@
       <c r="K212" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L212" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
@@ -7936,6 +8571,9 @@
       <c r="K213" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L213" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
@@ -7971,6 +8609,9 @@
       <c r="K214" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L214" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
@@ -8006,6 +8647,9 @@
       <c r="K215" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L215" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
@@ -8041,6 +8685,9 @@
       <c r="K216" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L216" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
@@ -8076,6 +8723,9 @@
       <c r="K217" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L217" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
@@ -8111,6 +8761,9 @@
       <c r="K218" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L218" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
@@ -8146,6 +8799,9 @@
       <c r="K219" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L219" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
@@ -8181,6 +8837,9 @@
       <c r="K220" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L220" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
@@ -8216,6 +8875,9 @@
       <c r="K221" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L221" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
@@ -8251,6 +8913,9 @@
       <c r="K222" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L222" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
@@ -8286,6 +8951,9 @@
       <c r="K223" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L223" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
@@ -8321,6 +8989,9 @@
       <c r="K224" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L224" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
@@ -8356,6 +9027,9 @@
       <c r="K225" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L225" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
@@ -8391,6 +9065,9 @@
       <c r="K226" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L226" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
@@ -8426,6 +9103,9 @@
       <c r="K227" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L227" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M227" s="0" t="n">
         <v>1</v>
       </c>
@@ -8464,6 +9144,9 @@
       <c r="K228" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L228" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M228" s="0" t="n">
         <v>1</v>
       </c>
@@ -8502,6 +9185,9 @@
       <c r="K229" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L229" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M229" s="0" t="n">
         <v>1</v>
       </c>
@@ -8540,6 +9226,9 @@
       <c r="K230" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L230" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M230" s="0" t="n">
         <v>1</v>
       </c>
@@ -8578,6 +9267,9 @@
       <c r="K231" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L231" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M231" s="0" t="n">
         <v>1</v>
       </c>
@@ -8616,6 +9308,9 @@
       <c r="K232" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L232" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M232" s="0" t="n">
         <v>1</v>
       </c>
@@ -8654,6 +9349,9 @@
       <c r="K233" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L233" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M233" s="0" t="n">
         <v>1</v>
       </c>
@@ -8692,6 +9390,9 @@
       <c r="K234" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L234" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M234" s="0" t="n">
         <v>1</v>
       </c>
@@ -8730,6 +9431,9 @@
       <c r="K235" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L235" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M235" s="0" t="n">
         <v>1</v>
       </c>
@@ -8768,6 +9472,9 @@
       <c r="K236" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L236" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
@@ -8803,6 +9510,9 @@
       <c r="K237" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L237" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
@@ -8838,6 +9548,9 @@
       <c r="K238" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L238" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
@@ -8873,6 +9586,9 @@
       <c r="K239" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L239" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
@@ -8908,6 +9624,9 @@
       <c r="K240" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L240" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
@@ -8943,6 +9662,9 @@
       <c r="K241" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L241" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
@@ -8978,6 +9700,9 @@
       <c r="K242" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L242" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
@@ -9013,6 +9738,9 @@
       <c r="K243" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L243" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
@@ -9048,6 +9776,9 @@
       <c r="K244" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L244" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
@@ -9083,6 +9814,9 @@
       <c r="K245" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L245" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
@@ -9118,6 +9852,9 @@
       <c r="K246" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L246" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
@@ -9153,6 +9890,9 @@
       <c r="K247" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L247" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
@@ -9188,6 +9928,9 @@
       <c r="K248" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L248" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
@@ -9223,6 +9966,9 @@
       <c r="K249" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L249" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
@@ -9258,6 +10004,9 @@
       <c r="K250" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L250" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
@@ -9293,6 +10042,9 @@
       <c r="K251" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L251" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
@@ -9328,6 +10080,9 @@
       <c r="K252" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L252" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
@@ -9363,6 +10118,9 @@
       <c r="K253" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L253" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M253" s="0" t="n">
         <v>1</v>
       </c>
@@ -9401,6 +10159,9 @@
       <c r="K254" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L254" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M254" s="0" t="n">
         <v>1</v>
       </c>
@@ -9439,6 +10200,9 @@
       <c r="K255" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L255" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M255" s="0" t="n">
         <v>1</v>
       </c>
@@ -9477,6 +10241,9 @@
       <c r="K256" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L256" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M256" s="0" t="n">
         <v>1</v>
       </c>
@@ -9515,6 +10282,9 @@
       <c r="K257" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L257" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M257" s="0" t="n">
         <v>1</v>
       </c>
@@ -9553,6 +10323,9 @@
       <c r="K258" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L258" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M258" s="0" t="n">
         <v>1</v>
       </c>
@@ -9591,6 +10364,9 @@
       <c r="K259" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L259" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M259" s="0" t="n">
         <v>1</v>
       </c>
@@ -9629,6 +10405,9 @@
       <c r="K260" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L260" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M260" s="0" t="n">
         <v>1</v>
       </c>
@@ -9667,6 +10446,9 @@
       <c r="K261" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L261" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M261" s="0" t="n">
         <v>1</v>
       </c>
@@ -9705,6 +10487,9 @@
       <c r="K262" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L262" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
@@ -9740,6 +10525,9 @@
       <c r="K263" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L263" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="s">
@@ -9775,6 +10563,9 @@
       <c r="K264" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L264" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="s">
@@ -9810,6 +10601,9 @@
       <c r="K265" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L265" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
@@ -9845,6 +10639,9 @@
       <c r="K266" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L266" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="s">
@@ -9880,6 +10677,9 @@
       <c r="K267" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L267" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="s">
@@ -9915,6 +10715,9 @@
       <c r="K268" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L268" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="s">
@@ -9950,6 +10753,9 @@
       <c r="K269" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L269" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="s">
@@ -9985,6 +10791,9 @@
       <c r="K270" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L270" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="s">
@@ -10020,6 +10829,9 @@
       <c r="K271" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L271" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="s">
@@ -10055,6 +10867,9 @@
       <c r="K272" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L272" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="s">
@@ -10090,6 +10905,9 @@
       <c r="K273" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L273" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="s">
@@ -10125,6 +10943,9 @@
       <c r="K274" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L274" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="s">
@@ -10160,6 +10981,9 @@
       <c r="K275" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L275" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="s">
@@ -10195,6 +11019,9 @@
       <c r="K276" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L276" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="s">
@@ -10230,6 +11057,9 @@
       <c r="K277" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L277" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
@@ -10265,6 +11095,9 @@
       <c r="K278" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L278" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="s">
@@ -10300,6 +11133,9 @@
       <c r="K279" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L279" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M279" s="0" t="n">
         <v>1</v>
       </c>
@@ -10338,6 +11174,9 @@
       <c r="K280" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L280" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M280" s="0" t="n">
         <v>1</v>
       </c>
@@ -10376,6 +11215,9 @@
       <c r="K281" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L281" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M281" s="0" t="n">
         <v>1</v>
       </c>
@@ -10414,6 +11256,9 @@
       <c r="K282" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L282" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M282" s="0" t="n">
         <v>1</v>
       </c>
@@ -10452,6 +11297,9 @@
       <c r="K283" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L283" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M283" s="0" t="n">
         <v>1</v>
       </c>
@@ -10490,6 +11338,9 @@
       <c r="K284" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L284" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M284" s="0" t="n">
         <v>1</v>
       </c>
@@ -10528,6 +11379,9 @@
       <c r="K285" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L285" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M285" s="0" t="n">
         <v>1</v>
       </c>
@@ -10566,6 +11420,9 @@
       <c r="K286" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L286" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M286" s="0" t="n">
         <v>1</v>
       </c>
@@ -10604,6 +11461,9 @@
       <c r="K287" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L287" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M287" s="0" t="n">
         <v>1</v>
       </c>
@@ -10642,6 +11502,9 @@
       <c r="K288" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L288" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="s">
@@ -10677,6 +11540,9 @@
       <c r="K289" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L289" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="s">
@@ -10712,6 +11578,9 @@
       <c r="K290" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L290" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="s">
@@ -10747,6 +11616,9 @@
       <c r="K291" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L291" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="s">
@@ -10782,6 +11654,9 @@
       <c r="K292" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L292" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="s">
@@ -10817,6 +11692,9 @@
       <c r="K293" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L293" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="s">
@@ -10852,6 +11730,9 @@
       <c r="K294" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L294" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="s">
@@ -10887,6 +11768,9 @@
       <c r="K295" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L295" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
@@ -10922,6 +11806,9 @@
       <c r="K296" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L296" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="s">
@@ -10957,6 +11844,9 @@
       <c r="K297" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L297" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="s">
@@ -10992,6 +11882,9 @@
       <c r="K298" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L298" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="s">
@@ -11027,6 +11920,9 @@
       <c r="K299" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L299" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="s">
@@ -11062,6 +11958,9 @@
       <c r="K300" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L300" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="s">
@@ -11097,6 +11996,9 @@
       <c r="K301" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L301" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="s">
@@ -11132,6 +12034,9 @@
       <c r="K302" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L302" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="s">
@@ -11167,6 +12072,9 @@
       <c r="K303" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L303" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="s">
@@ -11202,6 +12110,9 @@
       <c r="K304" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L304" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="s">
@@ -11237,6 +12148,9 @@
       <c r="K305" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L305" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M305" s="0" t="n">
         <v>1</v>
       </c>
@@ -11275,6 +12189,9 @@
       <c r="K306" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L306" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M306" s="0" t="n">
         <v>1</v>
       </c>
@@ -11313,6 +12230,9 @@
       <c r="K307" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L307" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M307" s="0" t="n">
         <v>1</v>
       </c>
@@ -11351,6 +12271,9 @@
       <c r="K308" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L308" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M308" s="0" t="n">
         <v>1</v>
       </c>
@@ -11389,6 +12312,9 @@
       <c r="K309" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L309" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M309" s="0" t="n">
         <v>1</v>
       </c>
@@ -11427,6 +12353,9 @@
       <c r="K310" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L310" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M310" s="0" t="n">
         <v>1</v>
       </c>
@@ -11465,6 +12394,9 @@
       <c r="K311" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L311" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M311" s="0" t="n">
         <v>1</v>
       </c>
@@ -11503,6 +12435,9 @@
       <c r="K312" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L312" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M312" s="0" t="n">
         <v>1</v>
       </c>
@@ -11541,6 +12476,9 @@
       <c r="K313" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L313" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M313" s="0" t="n">
         <v>1</v>
       </c>
@@ -11579,6 +12517,9 @@
       <c r="K314" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L314" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M314" s="0" t="n">
         <v>1</v>
       </c>
@@ -11617,6 +12558,9 @@
       <c r="K315" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L315" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M315" s="0" t="n">
         <v>1</v>
       </c>
@@ -11655,6 +12599,9 @@
       <c r="K316" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L316" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M316" s="0" t="n">
         <v>1</v>
       </c>
@@ -11693,6 +12640,9 @@
       <c r="K317" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L317" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M317" s="0" t="n">
         <v>1</v>
       </c>
@@ -11731,6 +12681,9 @@
       <c r="K318" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L318" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M318" s="0" t="n">
         <v>1</v>
       </c>
@@ -11769,6 +12722,9 @@
       <c r="K319" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L319" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M319" s="0" t="n">
         <v>1</v>
       </c>
@@ -11807,6 +12763,9 @@
       <c r="K320" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L320" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M320" s="0" t="n">
         <v>1</v>
       </c>
@@ -11845,6 +12804,9 @@
       <c r="K321" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L321" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M321" s="0" t="n">
         <v>1</v>
       </c>
@@ -11883,6 +12845,9 @@
       <c r="K322" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L322" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M322" s="0" t="n">
         <v>1</v>
       </c>
@@ -11921,6 +12886,9 @@
       <c r="K323" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L323" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M323" s="0" t="n">
         <v>1</v>
       </c>
@@ -11959,6 +12927,9 @@
       <c r="K324" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L324" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M324" s="0" t="n">
         <v>1</v>
       </c>
@@ -11997,6 +12968,9 @@
       <c r="K325" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="L325" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M325" s="0" t="n">
         <v>1</v>
       </c>
@@ -16922,7 +17896,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="H1:H313"/>
+  <autoFilter ref="A1:M445"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
